--- a/init-data/hzero-platform/hzero_platform/hzero-platform-org.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-org.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2083,6 +2083,9 @@
   </si>
   <si>
     <t>config_value</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -3107,7 +3110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3277,6 +3280,20 @@
         <v>79</v>
       </c>
     </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
